--- a/media/files/2017/07/723.xlsx
+++ b/media/files/2017/07/723.xlsx
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:J82"/>
+      <selection activeCell="J82" sqref="A1:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1408,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -1416,16 +1416,22 @@
       <c r="D13" s="10">
         <v>10</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9">
-        <v>35</v>
-      </c>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9"/>
       <c r="J13" s="4">
         <f>SUM(C13:I13)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="8"/>
@@ -1435,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -1446,15 +1452,13 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="9">
-        <v>10</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J14" s="4">
         <f>SUM(C14:I14)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="8"/>
@@ -1464,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -1473,16 +1477,14 @@
         <v>10</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="10">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10">
-        <v>10</v>
-      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="9">
         <v>10</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <v>20</v>
+      </c>
       <c r="J15" s="4">
         <f>SUM(C15:I15)</f>
         <v>50</v>
@@ -1495,7 +1497,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -1503,16 +1505,16 @@
       <c r="D16" s="10">
         <v>10</v>
       </c>
-      <c r="E16" s="10">
-        <v>10</v>
-      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="10">
         <v>10</v>
       </c>
       <c r="G16" s="10">
         <v>10</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9">
+        <v>10</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="4">
         <f>SUM(C16:I16)</f>
@@ -3058,7 +3060,7 @@
       <c r="N82" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="B3:J82">
+  <sortState ref="A3:J82">
     <sortCondition descending="1" ref="J4"/>
   </sortState>
   <dataConsolidate/>
